--- a/shifts.xlsx
+++ b/shifts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -47,10 +47,19 @@
     <t>ДА</t>
   </si>
   <si>
-    <t>Адя Гондонович Гитлер</t>
+    <t>Герман Александрович Курчатов</t>
   </si>
   <si>
     <t>НЕТ</t>
+  </si>
+  <si>
+    <t>Кондратий Валерьевич Симонов</t>
+  </si>
+  <si>
+    <t>Порфирий Петрович Глушков</t>
+  </si>
+  <si>
+    <t>Роман Александрович Сворин</t>
   </si>
 </sst>
 </file>
@@ -63,13 +72,18 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="XO Thames"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -536,140 +550,141 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1206,15 +1221,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="30.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="32.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,11 +1275,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1"/>
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>890124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1"/>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>87346</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8709</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
